--- a/biology/Médecine/Santé_Vie/Santé_Vie.xlsx
+++ b/biology/Médecine/Santé_Vie/Santé_Vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Vie</t>
+          <t>Santé_Vie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Santé Vie est une chaîne de télévision thématique française consacrée à la santé, lancée le 31 mai 2000 et disparue le 1er décembre 2003.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Vie</t>
+          <t>Santé_Vie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La chaîne est fondée en 2000 par Jean-François Lemoine et est conventionnée le 31 mai 2000 par le CSA. Il s'agit d'une chaîne diffusée sur le bouquet Canal+ et plusieurs réseaux câblés, partagée en deux tranches horaires distinctes :
 9 h à 23 h destinée au grand public ;
 23 h à 1 h du matin, réservée aux professionnels de la santé.
-Santé Vie fait d'abord partie du groupe Lagardère Active (81,4 % du capital) et est présidée par Jérôme Bellay, avec un budget annuel estimé à 4,5 millions d'euros. Mais les audiences quasi nulles de la chaîne ont conduit Lagardère à vendre ses parts en juillet 2002[1]. Marcel Ichou, un médecin à la tête d'un groupe de professionnels de la santé, reprend alors les commandes de l'antenne, puis fait rapidement appel à Patrick Chêne pour redresser la chaîne[2], lançant alors plusieurs nouveaux programmes pour redynamiser Santé Vie, en faisant appel notamment à Claude Sérillon, avec même un projet de changement de nom[3]. Cela n'a pourtant pas empêché la chaîne de cesser d'émettre dès le 1er septembre 2003.
+Santé Vie fait d'abord partie du groupe Lagardère Active (81,4 % du capital) et est présidée par Jérôme Bellay, avec un budget annuel estimé à 4,5 millions d'euros. Mais les audiences quasi nulles de la chaîne ont conduit Lagardère à vendre ses parts en juillet 2002. Marcel Ichou, un médecin à la tête d'un groupe de professionnels de la santé, reprend alors les commandes de l'antenne, puis fait rapidement appel à Patrick Chêne pour redresser la chaîne, lançant alors plusieurs nouveaux programmes pour redynamiser Santé Vie, en faisant appel notamment à Claude Sérillon, avec même un projet de changement de nom. Cela n'a pourtant pas empêché la chaîne de cesser d'émettre dès le 1er septembre 2003.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_Vie</t>
+          <t>Santé_Vie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dirigeants
-Président-Directeurs Généraux :
+          <t>Dirigeants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Président-Directeurs Généraux :
 Jérôme Bellay : du 31 mai 2000 à juillet 2002 ;
-Marcel Ichou : de juillet 2002 au 1er septembre 2003.
-Capital
-Santé Vie dispose d'un budget annuel estimé à 4,5 millions d'euros et appartient à 81,4 % au groupe Lagardère Active. En juillet 2002, la chaîne est rachetée par un groupe de professionnels de la santé présidé par Marcel Ichou.
-Animateurs
-Edwige Antier
+Marcel Ichou : de juillet 2002 au 1er septembre 2003.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Santé_Vie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Vie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santé Vie dispose d'un budget annuel estimé à 4,5 millions d'euros et appartient à 81,4 % au groupe Lagardère Active. En juillet 2002, la chaîne est rachetée par un groupe de professionnels de la santé présidé par Marcel Ichou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santé_Vie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Vie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Animateurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Edwige Antier
 Patrick Chêne
 Fabienne Kraemer
 Brigitte Milhau
@@ -569,91 +657,100 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sant%C3%A9_Vie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Santé_Vie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Vie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Programmes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Émissions
-Femmes Enfants : émission présentée par Jacques Pradel, Edwige Antier et Brigitte Simonetta.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Émissions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Femmes Enfants : émission présentée par Jacques Pradel, Edwige Antier et Brigitte Simonetta.
 C'est mon poids : émission inspirée de l'émission de télé réalité Big Diet et présentée par Fabienne Kraemer.
 Associations de Bienfaiteurs : émission présentée par Patrick Chêne.
 Bistouri et Compagnie : émission présentée par Claude Sérillon</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sant%C3%A9_Vie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Santé_Vie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Vie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sant%C3%A9_Vie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Santé_Vie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sant%C3%A9_Vie</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La chaîne est diffusée sur le bouquet satellite Canal+ et sur les opérateurs de câble Lyonnaise Câble, à partir de 2001 CGV et France Télécom Câble.
 </t>
